--- a/data/Minions.xlsx
+++ b/data/Minions.xlsx
@@ -34,7 +34,7 @@
     <t>Tendril</t>
   </si>
   <si>
-    <t>../assets/minions/vines/</t>
+    <t>../assets/minions/vines/evil-bud.png</t>
   </si>
 </sst>
 </file>
